--- a/Par Levels Store/Enola_par_level.xlsx
+++ b/Par Levels Store/Enola_par_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Par_Level_updates\Par Levels Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD219AD-17BE-4D17-BD21-A1F29E7BF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD22098-CDE8-436C-8279-FF82835337DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="237">
   <si>
     <t>Category</t>
   </si>
@@ -39,637 +39,704 @@
     <t>DD Stock Room (Primary)</t>
   </si>
   <si>
+    <t>DD CML Products (Primary)</t>
+  </si>
+  <si>
+    <t>DD Freezer (Primary)</t>
+  </si>
+  <si>
+    <t>FTO CINN RAIS BAGEL DOUGH 104/4.5OZ</t>
+  </si>
+  <si>
+    <t>Filled Bagel Round Everything 120/case</t>
+  </si>
+  <si>
+    <t>Filled Bagel Round Plain 120 per case</t>
+  </si>
+  <si>
+    <t>FTO Multigrain Bagel 104/4.5 ounce 104/4.5OZ</t>
+  </si>
+  <si>
+    <t>FTO Plain Bagel Dough 104/4.5 ounce 104/4.5OZ</t>
+  </si>
+  <si>
+    <t>DD Retail Merchandise (Primary)</t>
+  </si>
+  <si>
+    <t>Beach Holder Keychain Merchandiser 12 ct</t>
+  </si>
+  <si>
+    <t>Matcha 8/2.2 lb bags 8/2.2 LBS</t>
+  </si>
+  <si>
+    <t>Blueberry Breeze Refresher 12/46 ounce</t>
+  </si>
+  <si>
+    <t>Lemonade Concentrate 12/32 Ounce 12/32 OZ</t>
+  </si>
+  <si>
+    <t>Mango Pineapple Refresher 12/46 ounce</t>
+  </si>
+  <si>
+    <t>Blueberry Breeze Refresher 12/46 ounce 1/12\46OZ</t>
+  </si>
+  <si>
+    <t>STRAWBERRY DRAGONFRUIT DUNKIN REFRESHER</t>
+  </si>
+  <si>
+    <t>DD Walk In Cooler (Primary)</t>
+  </si>
+  <si>
+    <t>Topping Dunkin Sweet Cold Foam 12/15oz 12/15 OZ</t>
+  </si>
+  <si>
+    <t>BOX PAPER CLAM SHELL NEW 400 COUNT</t>
+  </si>
+  <si>
+    <t>DONUT BOX 12CT EVERGREEN 120 PER CASE</t>
+  </si>
+  <si>
+    <t>Donut Box 6ct Evergreen 180 per case</t>
+  </si>
+  <si>
+    <t>Box O Joe Rebrand 25 per case No Funnel</t>
+  </si>
+  <si>
+    <t>MUNCHKIN BOX 10 COUNT NO WINDOW</t>
+  </si>
+  <si>
+    <t>Munchkin Box 25ct Evergreen 350 per case</t>
+  </si>
+  <si>
+    <t>Munchkin Box 50ct Evergreen 260 per case 1/260</t>
+  </si>
+  <si>
+    <t>Snack Box 400 per case</t>
+  </si>
+  <si>
+    <t>CMT Munchkin Bucket w/lid Summer 25 50ct</t>
+  </si>
+  <si>
+    <t>Bread Sourdough 176 Slices Per Case 176/PER CASE CS</t>
+  </si>
+  <si>
+    <t>Cheese American 4 per case</t>
+  </si>
+  <si>
+    <t>Cheese White Cheddar 3 month aged 6/24oz</t>
+  </si>
+  <si>
+    <t>Queso Cheddar 40/8oz pouches</t>
+  </si>
+  <si>
+    <t>COFFEE 6/5 WHOLE BEAN 30 POUNDS</t>
+  </si>
+  <si>
+    <t>Cold Brew Coffee 12/15 Ounce</t>
+  </si>
+  <si>
+    <t>COFFEE DECAF 6/5 WHOLE BEAN 30 POUNDS</t>
+  </si>
+  <si>
+    <t>ESPRESSO WHOLE BEAN 8/2 POUND</t>
+  </si>
+  <si>
+    <t>ESPRESSO WHOLE BEAN DECAF 8/1 POUND</t>
+  </si>
+  <si>
+    <t>Iced Coffee OB 20/14oz 20/14 OZ</t>
+  </si>
+  <si>
+    <t>DECAF ORIGINAL BLEND ICED COFFEE</t>
+  </si>
+  <si>
+    <t>DUNKIN MIDNIGHT COFFEE HOT 64/3.5OZ</t>
+  </si>
+  <si>
+    <t>Spread Avocado 50/1.75 ounce</t>
+  </si>
+  <si>
+    <t>Chipotle Aioli 20/12oz pouches per case</t>
+  </si>
+  <si>
+    <t>MINI CREAMERS 3/8 OUNCE 400 PER CASE</t>
+  </si>
+  <si>
+    <t>Coolatta Blue Raspberry 4/64 ounces</t>
+  </si>
+  <si>
+    <t>Coolatta Strawberry NAT 4/64 ounce</t>
+  </si>
+  <si>
+    <t>Coolatta Vanilla Bean 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Cream cheese 8 ounce RE Plain 12 12/8 OZ</t>
+  </si>
+  <si>
+    <t>Cream Cheese Plain RE 1.5/48</t>
+  </si>
+  <si>
+    <t>CREAM CHEESE STRAW RE 1.5/48</t>
+  </si>
+  <si>
+    <t>Cream Cheese Veggie RE 1.5/48 48/1.50OZ</t>
+  </si>
+  <si>
+    <t>Cream Cheese 3# RE Plain 6 Tubs</t>
+  </si>
+  <si>
+    <t>Croissant Ham and Cheese 36 count</t>
+  </si>
+  <si>
+    <t>Croissant New FTO All Butter 120/3oz</t>
+  </si>
+  <si>
+    <t>Breakfast Bowl Cup 500 Per Case</t>
+  </si>
+  <si>
+    <t>COLD CUP ICED 16 OUNCE 1000 PER CASE</t>
+  </si>
+  <si>
+    <t>Cold Cup Iced 24 ounce 600 per case</t>
+  </si>
+  <si>
+    <t>Cold Cup Iced 32 ounce 500 per case</t>
+  </si>
+  <si>
+    <t>Espresso Cup 4 ounce 1000 case</t>
+  </si>
+  <si>
+    <t>HOT CUP 18 OUNCE EVERGREEN 480 PER CASE</t>
+  </si>
+  <si>
+    <t>HOT CUP 14 OUNCE EVERGREEN 600 PER CASE</t>
+  </si>
+  <si>
+    <t>HOT CUP 12 OUNCE EVERGREEN 600 PER CASE</t>
+  </si>
+  <si>
+    <t>HOT CUP 22 OUNCE EVERGREEN 400 PER CASE</t>
+  </si>
+  <si>
+    <t>Almond Breeze 12/32 ounce 12/32 OZ</t>
+  </si>
+  <si>
+    <t>DD Beverage Cooler (Primary)</t>
+  </si>
+  <si>
+    <t>Cereal Milk 6/64oz</t>
+  </si>
+  <si>
+    <t>Coffee Milk 6/64 Ounce 6/64 OZ</t>
+  </si>
+  <si>
+    <t>LIGHT CREAM HALF GALLONS 9 PER CASE</t>
+  </si>
+  <si>
+    <t>Extra Creamy Oat Milk 6/52 ounce 6/52 OZ</t>
+  </si>
+  <si>
+    <t>Skim Milk Gallons 4 per case 4/1 GAL</t>
+  </si>
+  <si>
+    <t>Classic Light Whipped Cream 12 pack 12/*</t>
+  </si>
+  <si>
+    <t>Whole Milk Gallons 4 per case 4/1 GAL</t>
+  </si>
+  <si>
+    <t>Egg Fried MF 228 per case</t>
+  </si>
+  <si>
+    <t>Egg Bacon Omelet Bite 45/4 ounce</t>
+  </si>
+  <si>
+    <t>English Muffin 72 per case</t>
+  </si>
+  <si>
+    <t>Decaf Espresso Pods 50 count</t>
+  </si>
+  <si>
+    <t>JB COFFEE ROLLS 78 PER CASE</t>
+  </si>
+  <si>
+    <t>JB Apple Fritter 3 ounce 72 per case</t>
+  </si>
+  <si>
+    <t>Flatbread Wrap Chicken Poblano 27ct</t>
+  </si>
+  <si>
+    <t>Flavor Shot Blueberry 1 Liter 1/1 LITER EA</t>
+  </si>
+  <si>
+    <t>Flavor Shot Coconut 1 Liter 1/1 LITER EA</t>
+  </si>
+  <si>
+    <t>Flavor Shot Vanilla 1 Liter</t>
+  </si>
+  <si>
+    <t>Flavor Shot Hazelnut 1 Liter Bottle</t>
+  </si>
+  <si>
+    <t>Flavor Shot Raspberry 1 Liter 1/1 LITER EA</t>
+  </si>
+  <si>
+    <t>Flavor Shot Toasted Almond 1 Liter 1/1 LITER EA</t>
+  </si>
+  <si>
+    <t>Gatorade Cool Blue 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Gatorade 20oz 1/24cs Lemon Lime</t>
+  </si>
+  <si>
+    <t>Hashbrown Reduced Sodium 6/3 lb</t>
+  </si>
+  <si>
+    <t>Hot Chocolate Original 8/3 pound bags</t>
+  </si>
+  <si>
+    <t>Tropicana Apple Juice 24/10 ounce 24/10 OZ</t>
+  </si>
+  <si>
+    <t>Tropicana Orange Juice 11oz 24pk 24/11OZ</t>
+  </si>
+  <si>
+    <t>Breakfast Bowl Lid 500 per case</t>
+  </si>
+  <si>
+    <t>Cold Cup Flat Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
+  </si>
+  <si>
+    <t>Cold Cup Lid 32 ounce Flat 1000 per case</t>
+  </si>
+  <si>
+    <t>COLD CUP 16/24OZ PET LID SIP 1080 COUNT</t>
+  </si>
+  <si>
+    <t>COLD CUP PET LID SIP 32 OUNCE 900 COUNT</t>
+  </si>
+  <si>
+    <t>Cold Cup Dome Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
+  </si>
+  <si>
+    <t>Cold PP Dome Lid 32 ounce 1000 per case</t>
+  </si>
+  <si>
+    <t>HOT CUP LID 4 OUNCE 1000 PER CASE</t>
+  </si>
+  <si>
+    <t>LID POLY FOR DW HOT CUPS 1200 PER CASE</t>
+  </si>
+  <si>
+    <t>Bacon Cherrywood 4/150 4/150</t>
+  </si>
+  <si>
+    <t>Pork Sausage Patty 106 per case 1/106</t>
+  </si>
+  <si>
+    <t>Turkey Sausage Patty 106 per case 1/106 CT</t>
+  </si>
+  <si>
+    <t>Muffin Blueberry RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Muffin Chocolate Chip RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Muffin Coffee Cake RS 96 per case 96/PER CASE</t>
+  </si>
+  <si>
+    <t>Ketchup Packet 1500/9 G</t>
+  </si>
+  <si>
+    <t>Sandwich Wrap 2000 per case</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC DECAF 24/16 OUNCE</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC FRENCH VANILLA 24/16OZ</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
+  </si>
+  <si>
+    <t>COFFEE WHOLE BEAN POC REGULAR 24/16 OZ</t>
+  </si>
+  <si>
+    <t>Loaf Pumpkin Sliced Wrapped 20 per case</t>
+  </si>
+  <si>
+    <t>Hashbrown Portion Bag plastic 2000 count 2000/*</t>
+  </si>
+  <si>
+    <t>Universal Sleeve Original 2000 per case</t>
+  </si>
+  <si>
+    <t>Diet Pepsi 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Mountain Dew 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Pepsi Regular 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Starry Lemon Lime 24/20 ounce</t>
+  </si>
+  <si>
+    <t>Loaf Iced Strawberry Lemon Wrapped 20 ct</t>
+  </si>
+  <si>
+    <t>FTO Braided Apple Strudel 108 count</t>
+  </si>
+  <si>
+    <t>Liquid Cane Sugar Bag In Box 2 per case</t>
+  </si>
+  <si>
+    <t>Sweetener Equal 2000 per case 2000/0.8 GRAMS</t>
+  </si>
+  <si>
+    <t>Sweetener Stevia 1000 per case 1/3.1</t>
+  </si>
+  <si>
+    <t>Sugar Packets 2000 per case 1000/*</t>
+  </si>
+  <si>
+    <t>BULK Splenda 12 Pounds 12/1 LB</t>
+  </si>
+  <si>
+    <t>Sweetener Stevia 1000 per case</t>
+  </si>
+  <si>
+    <t>EXTRAFINE COFFEE SUGAR 50 POUND BAG</t>
+  </si>
+  <si>
+    <t>Swirl Butter Pecan 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Caramel 6/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl French Vanilla 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Mint Chocolate Chip 4/64 oz</t>
+  </si>
+  <si>
+    <t>Swirl Mocha 6/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Swirl Pumpkin 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Syrup Berry Burst Dunkin Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Syrup Brown Sugar 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t>Syrup Peach Sunshine Dnkn Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Syrup Pumpable Coffee 4/64 Ounce Bottles</t>
+  </si>
+  <si>
+    <t>Syrup Secret Dunkin Energy 4/64oz</t>
+  </si>
+  <si>
+    <t>Tea Black Bold Breakfast Pyramid 6/15 ct 15/90 CT</t>
+  </si>
+  <si>
+    <t>Chai Tea Concentrate 6/30 ounce</t>
+  </si>
+  <si>
+    <t>Tea Herbal Cool Mint Pyramid 6/15 count 15/90 CT</t>
+  </si>
+  <si>
+    <t>DD Decaf Black Pyramid Tea 6/15 CT</t>
+  </si>
+  <si>
+    <t>Tea Green Harmony Leaf Pyramid 6/15 ct</t>
+  </si>
+  <si>
+    <t>Tea Iced Green Tea 32 bags 32/2 OZ</t>
+  </si>
+  <si>
+    <t>Tea Iced Green Tea 32 bags</t>
+  </si>
+  <si>
+    <t>TORTILLA FLOUR 5.5 INCH RES 576 PER CASE</t>
+  </si>
+  <si>
+    <t>POLAND SPRING WATER D 24/20 OUNCE</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Original 6/12</t>
+  </si>
+  <si>
+    <t>Milk Chug Whole Chocolate 12/14 ounce 12/14 OZ</t>
+  </si>
+  <si>
+    <t>Milk Chug Whole 12/14 ounce 12/14 OZ</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Dunkin' Midnight 6/12</t>
+  </si>
+  <si>
+    <t>Maple Sugar Bacon Rub 10/3 ounce 10/3 OZ</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC MIDNIGHT 24/16OZ</t>
+  </si>
+  <si>
+    <t>Tumbler Americana XL Spring 2025 6/32oz 6/32 OZ</t>
+  </si>
+  <si>
+    <t>Tumbler Bermuda</t>
+  </si>
+  <si>
+    <t>Tumbler StainlessSipper Fall 2023 6/20oz 6/20 OZ</t>
+  </si>
+  <si>
+    <t>DD Condiment Station (Secondary)</t>
+  </si>
+  <si>
+    <t>Tumbler Stainless Donut 6/22oz per case</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Decaf 6/12</t>
+  </si>
+  <si>
+    <t>Swirl Cookie Dough 4/64 ounce bottles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
+  </si>
+  <si>
+    <t>Par Level/ Case</t>
+  </si>
+  <si>
+    <t>In the Store</t>
+  </si>
+  <si>
+    <t>Need to Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND POC HAZELNUT 24/16 OUNCE</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Munchkin Box</t>
+  </si>
+  <si>
+    <t>Rockstar Energy 24/16 ounce</t>
+  </si>
+  <si>
+    <t>Mountain Dew 24/20 ounce 24/20 OZ</t>
+  </si>
+  <si>
+    <t>Sipper Frosted WC CMT 6/27 ounce</t>
+  </si>
+  <si>
+    <t>Sipper Iced with Keychain CMT 12/24oz</t>
+  </si>
+  <si>
+    <t>Sipper Acrylic Bamboo Lid CMT 6/24 ounce</t>
+  </si>
+  <si>
+    <t>Everything Bagel Topping 10 pounds</t>
+  </si>
+  <si>
+    <t>Glaze Ready to Use 55 pounds 1/55 LB</t>
+  </si>
+  <si>
+    <t>Milk 2% Gallons 4 per case</t>
+  </si>
+  <si>
+    <t>Croissant Chicken Bacon Colby 36 count</t>
+  </si>
+  <si>
+    <t>JB Chocolate Cake Donut Ring 144 per cs</t>
+  </si>
+  <si>
+    <t>JB French Cruller RE 96 per case</t>
+  </si>
+  <si>
+    <t>JB Pumpkin Cake Ring 144 per case 144/PER CASE</t>
+  </si>
+  <si>
+    <t>JB Yeast Shell 120 per case 120/1.88 OZ</t>
+  </si>
+  <si>
+    <t>JB Sour Cream Donut 120 per case 120/PER CASE CS</t>
+  </si>
+  <si>
+    <t>JB Yeast Ring 120 per case</t>
+  </si>
+  <si>
+    <t>JB Yeast Shell 120 per case</t>
+  </si>
+  <si>
+    <t>JB Blueberry Munchkin 440 per case</t>
+  </si>
+  <si>
+    <t>JB Chocolate Cake Munchkin 440 per case 440/.47OZ</t>
+  </si>
+  <si>
+    <t>JB Pumpkin Cake Munchkin 440 per case</t>
+  </si>
+  <si>
+    <t>JB Yeast Munchkin 350 per case</t>
+  </si>
+  <si>
+    <t>Tumbler Stainless w Handle 6/40 ounce 6/40OZ</t>
+  </si>
+  <si>
+    <t>Tumbler Americana</t>
+  </si>
+  <si>
+    <t>Tumbler Bermuda Pink Black White 6/20</t>
+  </si>
+  <si>
+    <t>Tumbler Bermuda XL Spring 2025 6/24oz 6/24 OZ</t>
+  </si>
+  <si>
+    <t>Tumbler Stainless Donut 6/22oz per case 1/6</t>
+  </si>
+  <si>
     <t>4# DD WHITE BAGEL BAGS 1000 COUNT</t>
   </si>
   <si>
-    <t>8# DD RB WHITE BAGEL BAGS 1000 COUNT</t>
-  </si>
-  <si>
-    <t>DD CML Products (Primary)</t>
-  </si>
-  <si>
-    <t>DD Freezer (Primary)</t>
-  </si>
-  <si>
-    <t>FTO CINN RAIS BAGEL DOUGH 104/4.5OZ</t>
-  </si>
-  <si>
-    <t>Filled Bagel Round Everything 120/case</t>
-  </si>
-  <si>
-    <t>Filled Bagel Round Plain 120 per case</t>
-  </si>
-  <si>
-    <t>FTO Multigrain Bagel 104/4.5 ounce 104/4.5OZ</t>
-  </si>
-  <si>
-    <t>FTO Plain Bagel Dough 104/4.5 ounce 104/4.5OZ</t>
-  </si>
-  <si>
-    <t>DD Retail Merchandise (Primary)</t>
-  </si>
-  <si>
-    <t>Beach Holder Keychain Merchandiser 12 ct</t>
-  </si>
-  <si>
-    <t>Matcha 8/2.2 lb bags 8/2.2 LBS</t>
-  </si>
-  <si>
-    <t>Blueberry Breeze Refresher 12/46 ounce</t>
-  </si>
-  <si>
-    <t>Lemonade Concentrate 12/32 Ounce 12/32 OZ</t>
-  </si>
-  <si>
-    <t>Mango Pineapple Refresher 12/46 ounce</t>
-  </si>
-  <si>
-    <t>Blueberry Breeze Refresher 12/46 ounce 1/12\46OZ</t>
-  </si>
-  <si>
-    <t>STRAWBERRY DRAGONFRUIT DUNKIN REFRESHER</t>
-  </si>
-  <si>
-    <t>DD Walk In Cooler (Primary)</t>
-  </si>
-  <si>
-    <t>Topping Dunkin Sweet Cold Foam 12/15oz 12/15 OZ</t>
-  </si>
-  <si>
-    <t>BOX PAPER CLAM SHELL NEW 400 COUNT</t>
+    <t>Shopping Bag Dozen Large 500 per case</t>
+  </si>
+  <si>
+    <t>Shopping Bag Paper Dozen 50 per case 50/16X12 5X11</t>
+  </si>
+  <si>
+    <t>Shopping Bag Half Dozen Small 1000/case 1000/1/2 DZ CS</t>
+  </si>
+  <si>
+    <t>Sesame Seed Bagel Topping 10 pounds</t>
+  </si>
+  <si>
+    <t>Topping Beverage Waffle Cone 5/1lb bags</t>
   </si>
   <si>
     <t>Bakery Box RB 250 per case</t>
   </si>
   <si>
-    <t>DONUT BOX 12CT EVERGREEN 120 PER CASE</t>
-  </si>
-  <si>
-    <t>Donut Box 6ct Evergreen 180 per case</t>
-  </si>
-  <si>
-    <t>Box O Joe Rebrand 25 per case No Funnel</t>
-  </si>
-  <si>
-    <t>MUNCHKIN BOX 10 COUNT NO WINDOW</t>
-  </si>
-  <si>
-    <t>Munchkin Box 25ct Evergreen 350 per case</t>
-  </si>
-  <si>
-    <t>Munchkin Box 50ct Evergreen 260 per case 1/260</t>
-  </si>
-  <si>
-    <t>Snack Box 400 per case</t>
-  </si>
-  <si>
-    <t>CMT Munchkin Bucket w/lid Summer 25 50ct</t>
-  </si>
-  <si>
     <t>Carrier 4 Cup 300 per case 300/PER CASE CS</t>
   </si>
   <si>
-    <t>Bread Sourdough 176 Slices Per Case 176/PER CASE CS</t>
-  </si>
-  <si>
-    <t>Cheese American 4 per case</t>
-  </si>
-  <si>
-    <t>Cheese White Cheddar 3 month aged 6/24oz</t>
-  </si>
-  <si>
-    <t>Queso Cheddar 40/8oz pouches</t>
-  </si>
-  <si>
-    <t>COFFEE 6/5 WHOLE BEAN 30 POUNDS</t>
-  </si>
-  <si>
-    <t>Cold Brew Coffee 12/15 Ounce</t>
-  </si>
-  <si>
-    <t>COFFEE DECAF 6/5 WHOLE BEAN 30 POUNDS</t>
-  </si>
-  <si>
-    <t>ESPRESSO WHOLE BEAN 8/2 POUND</t>
-  </si>
-  <si>
-    <t>ESPRESSO WHOLE BEAN DECAF 8/1 POUND</t>
-  </si>
-  <si>
-    <t>Iced Coffee OB 20/14oz 20/14 OZ</t>
-  </si>
-  <si>
-    <t>DECAF ORIGINAL BLEND ICED COFFEE</t>
-  </si>
-  <si>
-    <t>DUNKIN MIDNIGHT COFFEE HOT 64/3.5OZ</t>
-  </si>
-  <si>
-    <t>Spread Avocado 50/1.75 ounce</t>
+    <t>Iced Coffee Filter 2/250 500/*</t>
+  </si>
+  <si>
+    <t>Cold Brew Toddy Filter 1/50 PACK PAK</t>
+  </si>
+  <si>
+    <t>Plastic Fork Wrapped 1000ct</t>
+  </si>
+  <si>
+    <t>Ice Coffee Tap System Liner 100 per case</t>
+  </si>
+  <si>
+    <t>Pan Liner TurboChef Oven New 2400 2400/CASE</t>
+  </si>
+  <si>
+    <t>Interfolded Napkin 1/6000</t>
+  </si>
+  <si>
+    <t>Delivery Insert for 2 Cups New 150/case</t>
+  </si>
+  <si>
+    <t>Sprinkles</t>
+  </si>
+  <si>
+    <t>Straw 10.25 Inch Orange/Pink Large 1200</t>
+  </si>
+  <si>
+    <t>Straw 8.25 Inch Orange/Pink Small</t>
+  </si>
+  <si>
+    <t>Bulk Sweet N Low 12/8 Ounce 12/8 OZ</t>
+  </si>
+  <si>
+    <t>Vinyl Gloves Medium</t>
   </si>
   <si>
     <t>Butter with Canola Oil 6/24 ounce</t>
   </si>
   <si>
-    <t>Chipotle Aioli 20/12oz pouches per case</t>
-  </si>
-  <si>
-    <t>MINI CREAMERS 3/8 OUNCE 400 PER CASE</t>
-  </si>
-  <si>
-    <t>Coolatta Blue Raspberry 4/64 ounces</t>
-  </si>
-  <si>
-    <t>Coolatta Strawberry NAT 4/64 ounce</t>
-  </si>
-  <si>
-    <t>Coolatta Vanilla Bean 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Cream cheese 8 ounce RE Plain 12 12/8 OZ</t>
-  </si>
-  <si>
-    <t>Cream Cheese Plain RE 1.5/48</t>
-  </si>
-  <si>
-    <t>CREAM CHEESE STRAW RE 1.5/48</t>
-  </si>
-  <si>
-    <t>Cream Cheese Veggie RE 1.5/48 48/1.50OZ</t>
-  </si>
-  <si>
-    <t>Cream Cheese 3# RE Plain 6 Tubs</t>
-  </si>
-  <si>
-    <t>Croissant Chicken Bacon Colby 36 count</t>
-  </si>
-  <si>
-    <t>Croissant Ham and Cheese 36 count</t>
-  </si>
-  <si>
-    <t>Croissant New FTO All Butter 120/3oz</t>
-  </si>
-  <si>
-    <t>Breakfast Bowl Cup 500 Per Case</t>
-  </si>
-  <si>
-    <t>COLD CUP ICED 16 OUNCE 1000 PER CASE</t>
-  </si>
-  <si>
-    <t>Cold Cup Iced 24 ounce 600 per case</t>
-  </si>
-  <si>
-    <t>Cold Cup Iced 32 ounce 500 per case</t>
-  </si>
-  <si>
-    <t>Espresso Cup 4 ounce 1000 case</t>
-  </si>
-  <si>
-    <t>HOT CUP 18 OUNCE EVERGREEN 480 PER CASE</t>
-  </si>
-  <si>
-    <t>HOT CUP 14 OUNCE EVERGREEN 600 PER CASE</t>
-  </si>
-  <si>
-    <t>HOT CUP 12 OUNCE EVERGREEN 600 PER CASE</t>
-  </si>
-  <si>
-    <t>HOT CUP 22 OUNCE EVERGREEN 400 PER CASE</t>
-  </si>
-  <si>
-    <t>Almond Breeze 12/32 ounce 12/32 OZ</t>
-  </si>
-  <si>
-    <t>DD Beverage Cooler (Primary)</t>
-  </si>
-  <si>
-    <t>Cereal Milk 6/64oz</t>
-  </si>
-  <si>
-    <t>Coffee Milk 6/64 Ounce 6/64 OZ</t>
-  </si>
-  <si>
-    <t>LIGHT CREAM HALF GALLONS 9 PER CASE</t>
-  </si>
-  <si>
-    <t>Extra Creamy Oat Milk 6/52 ounce 6/52 OZ</t>
-  </si>
-  <si>
-    <t>Skim Milk Gallons 4 per case 4/1 GAL</t>
-  </si>
-  <si>
-    <t>Classic Light Whipped Cream 12 pack 12/*</t>
-  </si>
-  <si>
-    <t>Whole Milk Gallons 4 per case 4/1 GAL</t>
-  </si>
-  <si>
-    <t>JB Plain Cake Donut Ring 144 per case</t>
-  </si>
-  <si>
-    <t>JB Chocolate Cake Donut Ring 144 per cs</t>
-  </si>
-  <si>
-    <t>JB Pumpkin Cake Ring 144 per case 144/PER CASE</t>
-  </si>
-  <si>
-    <t>JB Sour Cream Donut 120 per case 120/PER CASE CS</t>
-  </si>
-  <si>
-    <t>JB Yeast Ring 120 per case</t>
-  </si>
-  <si>
-    <t>Egg Fried MF 228 per case</t>
-  </si>
-  <si>
-    <t>Egg Bacon Omelet Bite 45/4 ounce</t>
-  </si>
-  <si>
-    <t>English Muffin 72 per case</t>
-  </si>
-  <si>
-    <t>Decaf Espresso Pods 50 count</t>
-  </si>
-  <si>
-    <t>JB COFFEE ROLLS 78 PER CASE</t>
-  </si>
-  <si>
-    <t>JB Apple Fritter 3 ounce 72 per case</t>
-  </si>
-  <si>
-    <t>Flatbread Wrap Chicken Poblano 27ct</t>
-  </si>
-  <si>
-    <t>Flavor Shot Blueberry 1 Liter 1/1 LITER EA</t>
-  </si>
-  <si>
-    <t>Flavor Shot Coconut 1 Liter 1/1 LITER EA</t>
-  </si>
-  <si>
-    <t>Flavor Shot Vanilla 1 Liter</t>
-  </si>
-  <si>
-    <t>Flavor Shot Hazelnut 1 Liter Bottle</t>
-  </si>
-  <si>
-    <t>Flavor Shot Raspberry 1 Liter 1/1 LITER EA</t>
-  </si>
-  <si>
-    <t>Flavor Shot Toasted Almond 1 Liter 1/1 LITER EA</t>
-  </si>
-  <si>
-    <t>Gatorade Cool Blue 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Gatorade 20oz 1/24cs Lemon Lime</t>
-  </si>
-  <si>
-    <t>Hashbrown Reduced Sodium 6/3 lb</t>
-  </si>
-  <si>
-    <t>Hot Chocolate Original 8/3 pound bags</t>
-  </si>
-  <si>
-    <t>Tropicana Apple Juice 24/10 ounce 24/10 OZ</t>
-  </si>
-  <si>
-    <t>Tropicana Orange Juice 11oz 24pk 24/11OZ</t>
-  </si>
-  <si>
-    <t>Breakfast Bowl Lid 500 per case</t>
-  </si>
-  <si>
-    <t>Cold Cup Flat Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
-  </si>
-  <si>
-    <t>Cold Cup Lid 32 ounce Flat 1000 per case</t>
-  </si>
-  <si>
-    <t>COLD CUP 16/24OZ PET LID SIP 1080 COUNT</t>
-  </si>
-  <si>
-    <t>COLD CUP PET LID SIP 32 OUNCE 900 COUNT</t>
-  </si>
-  <si>
-    <t>Cold Cup Dome Lid 16/24 ounce 1000 count 1000/16/24 OZ</t>
-  </si>
-  <si>
-    <t>Cold PP Dome Lid 32 ounce 1000 per case</t>
-  </si>
-  <si>
-    <t>HOT CUP LID 4 OUNCE 1000 PER CASE</t>
-  </si>
-  <si>
-    <t>LID POLY FOR DW HOT CUPS 1200 PER CASE</t>
-  </si>
-  <si>
-    <t>Bacon Cherrywood 4/150 4/150</t>
-  </si>
-  <si>
-    <t>Pork Sausage Patty 106 per case 1/106</t>
-  </si>
-  <si>
-    <t>Turkey Sausage Patty 106 per case 1/106 CT</t>
-  </si>
-  <si>
-    <t>Muffin Blueberry RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Muffin Chocolate Chip RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>Muffin Coffee Cake RS 96 per case 96/PER CASE</t>
-  </si>
-  <si>
-    <t>JB Blueberry Munchkin 440 per case</t>
-  </si>
-  <si>
-    <t>JB Yeast Munchkin 350 per case</t>
-  </si>
-  <si>
-    <t>Interfolded Napkin 1/6000</t>
-  </si>
-  <si>
-    <t>Ketchup Packet 1500/9 G</t>
-  </si>
-  <si>
-    <t>Sandwich Wrap 2000 per case</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC DECAF 24/16 OUNCE</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC FRENCH VANILLA 24/16OZ</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
-  </si>
-  <si>
-    <t>COFFEE WHOLE BEAN POC REGULAR 24/16 OZ</t>
-  </si>
-  <si>
-    <t>Loaf Pumpkin Sliced Wrapped 20 per case</t>
-  </si>
-  <si>
-    <t>Hashbrown Portion Bag plastic 2000 count 2000/*</t>
-  </si>
-  <si>
-    <t>Universal Sleeve Original 2000 per case</t>
-  </si>
-  <si>
-    <t>Diet Pepsi 24/20 ounce 24/20 OZ</t>
-  </si>
-  <si>
-    <t>Mountain Dew 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Pepsi Regular 24/20 ounce 24/20 OZ</t>
-  </si>
-  <si>
-    <t>Starry Lemon Lime 24/20 ounce</t>
-  </si>
-  <si>
-    <t>Loaf Iced Strawberry Lemon Wrapped 20 ct</t>
-  </si>
-  <si>
-    <t>Straw 10.25 Inch Orange/Pink Large 1200</t>
-  </si>
-  <si>
-    <t>Straw 8.25 Inch Orange/Pink Small</t>
-  </si>
-  <si>
-    <t>FTO Braided Apple Strudel 108 count</t>
-  </si>
-  <si>
-    <t>Liquid Cane Sugar Bag In Box 2 per case</t>
-  </si>
-  <si>
-    <t>Sweetener Equal 2000 per case 2000/0.8 GRAMS</t>
-  </si>
-  <si>
-    <t>Sweetener Stevia 1000 per case 1/3.1</t>
-  </si>
-  <si>
-    <t>Sugar Packets 2000 per case 1000/*</t>
-  </si>
-  <si>
-    <t>BULK Splenda 12 Pounds 12/1 LB</t>
-  </si>
-  <si>
-    <t>Sweetener Stevia 1000 per case</t>
-  </si>
-  <si>
-    <t>EXTRAFINE COFFEE SUGAR 50 POUND BAG</t>
-  </si>
-  <si>
-    <t>Swirl Butter Pecan 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Caramel 6/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl French Vanilla 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Mint Chocolate Chip 4/64 oz</t>
-  </si>
-  <si>
-    <t>Swirl Mocha 6/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Swirl Pumpkin 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Syrup Berry Burst Dunkin Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Syrup Brown Sugar 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Syrup Peach Sunshine Dnkn Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Syrup Pumpable Coffee 4/64 Ounce Bottles</t>
-  </si>
-  <si>
-    <t>Syrup Secret Dunkin Energy 4/64oz</t>
-  </si>
-  <si>
-    <t>Tea Black Bold Breakfast Pyramid 6/15 ct 15/90 CT</t>
-  </si>
-  <si>
-    <t>Chai Tea Concentrate 6/30 ounce</t>
-  </si>
-  <si>
-    <t>Tea Herbal Cool Mint Pyramid 6/15 count 15/90 CT</t>
-  </si>
-  <si>
-    <t>DD Decaf Black Pyramid Tea 6/15 CT</t>
-  </si>
-  <si>
-    <t>Tea Green Harmony Leaf Pyramid 6/15 ct</t>
-  </si>
-  <si>
-    <t>Tea Iced Green Tea 32 bags 32/2 OZ</t>
-  </si>
-  <si>
-    <t>Tea Iced Green Tea 32 bags</t>
-  </si>
-  <si>
-    <t>TORTILLA FLOUR 5.5 INCH RES 576 PER CASE</t>
-  </si>
-  <si>
-    <t>POLAND SPRING WATER D 24/20 OUNCE</t>
-  </si>
-  <si>
-    <t>Iced Coffee Filter 2/250 500/*</t>
-  </si>
-  <si>
-    <t>JB French Cruller RE 96 per case</t>
-  </si>
-  <si>
-    <t>Iced Coffee Filter 2/250</t>
-  </si>
-  <si>
-    <t>Icing NAT Color Chocolate 22 pounds</t>
-  </si>
-  <si>
-    <t>K Cup Coffee Original 6/12</t>
-  </si>
-  <si>
-    <t>Pan Liner Envirobake New 1000 case</t>
-  </si>
-  <si>
-    <t>Ice Coffee Tap System Liner 100 per case</t>
-  </si>
-  <si>
-    <t>Pan Liner TurboChef Oven New 2400 2400/CASE</t>
-  </si>
-  <si>
-    <t>Milk Chug Whole Chocolate 12/14 ounce 12/14 OZ</t>
-  </si>
-  <si>
-    <t>Milk Chug Whole 12/14 ounce 12/14 OZ</t>
-  </si>
-  <si>
-    <t>Delivery Insert for 2 Cups New 150/case</t>
-  </si>
-  <si>
-    <t>Bulk Sweet N Low 12/8 Ounce 12/8 OZ</t>
-  </si>
-  <si>
-    <t>Shopping Bag Dozen Large 500 per case</t>
-  </si>
-  <si>
-    <t>Shopping Bag Paper Dozen 50 per case 50/16X12 5X11</t>
-  </si>
-  <si>
     <t>Cream Cheese 3# RE Strawberry 6 Tubs</t>
   </si>
   <si>
-    <t>Cream Cheese 3# RE Veggie 6 Tubs</t>
-  </si>
-  <si>
-    <t>JB Yeast Shell 120 per case 120/1.88 OZ</t>
-  </si>
-  <si>
-    <t>JB Yeast Shell 120 per case</t>
-  </si>
-  <si>
-    <t>Filling NAT Color Vanilla Buttercrem 35#</t>
-  </si>
-  <si>
-    <t>K Cup Coffee Dunkin' Midnight 6/12</t>
-  </si>
-  <si>
-    <t>Milk 2% Gallons 4 per case</t>
-  </si>
-  <si>
-    <t>JB Chocolate Cake Munchkin 440 per case 440/.47OZ</t>
-  </si>
-  <si>
-    <t>JB Pumpkin Cake Munchkin 440 per case</t>
-  </si>
-  <si>
-    <t>Maple Sugar Bacon Rub 10/3 ounce 10/3 OZ</t>
-  </si>
-  <si>
-    <t>COFFEE GROUND POC MIDNIGHT 24/16OZ</t>
-  </si>
-  <si>
-    <t>Summer Surf Hats Merchandiser 6 ct</t>
-  </si>
-  <si>
-    <t>Tumbler Americana</t>
-  </si>
-  <si>
-    <t>Tumbler Americana XL Spring 2025 6/32oz 6/32 OZ</t>
-  </si>
-  <si>
-    <t>Tumbler Bermuda Pink Black White 6/20</t>
-  </si>
-  <si>
-    <t>Tumbler Bermuda</t>
-  </si>
-  <si>
-    <t>Tumbler StainlessSipper Fall 2023 6/20oz 6/20 OZ</t>
-  </si>
-  <si>
-    <t>DD Condiment Station (Secondary)</t>
-  </si>
-  <si>
-    <t>Tumbler Stainless Donut 6/22oz per case</t>
-  </si>
-  <si>
-    <t>Tumbler Stainless Donut 6/22oz per case 1/6</t>
-  </si>
-  <si>
-    <t>Everything Bagel Topping 10 pounds</t>
-  </si>
-  <si>
-    <t>Sesame Seed Bagel Topping 10 pounds</t>
-  </si>
-  <si>
-    <t>Topping Beverage Waffle Cone 5/1lb bags</t>
-  </si>
-  <si>
-    <t>Cold Brew Toddy Filter 1/50 PACK PAK</t>
-  </si>
-  <si>
-    <t>Glaze Ready to Use 55 pounds 1/55 LB</t>
-  </si>
-  <si>
-    <t>K Cup Coffee Decaf 6/12</t>
-  </si>
-  <si>
-    <t>Sprinkles</t>
-  </si>
-  <si>
-    <t>Swirl Cookie Dough 4/64 ounce bottles</t>
-  </si>
-  <si>
-    <t>Vinyl Gloves Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland Springs Sparkling Water 24/16.9oz 24/16.9 OZ	</t>
-  </si>
-  <si>
-    <t>Par Level/ Case</t>
-  </si>
-  <si>
-    <t>In the Store</t>
-  </si>
-  <si>
-    <t>Need to Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
-  </si>
-  <si>
-    <t>OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
-  </si>
-  <si>
-    <t>inf</t>
+    <t>Do not count (Equipment/Cleaning)</t>
+  </si>
+  <si>
+    <t>Schaerer Cleaning Tablets</t>
+  </si>
+  <si>
+    <t>Beverage Labels 30 Rolls 30/1 CARTON CS</t>
+  </si>
+  <si>
+    <t>On The Go Pink Thermal Tape 1 CV/* CS</t>
+  </si>
+  <si>
+    <t>PG Spray Bottle Delimer 1 Ct Dct</t>
+  </si>
+  <si>
+    <t>Roll Towel White 6/800 feet</t>
+  </si>
+  <si>
+    <t>Printer DayMark</t>
+  </si>
+  <si>
+    <t>Hot Cup 6 oz Paper 1000 per case 1000/6 OZ</t>
+  </si>
+  <si>
+    <t>Thermal Register Paper 3 1/8 50 pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet Tissue Jumbo 12 per case 1/12 CT	</t>
+  </si>
+  <si>
+    <t>HDPE Trash Bags 30-40 Gal Black 250 ct</t>
+  </si>
+  <si>
+    <t>HDPE Trash Bags 40-45 Gal 200 PER CASE</t>
+  </si>
+  <si>
+    <t>Vinyl Gloves Large</t>
+  </si>
+  <si>
+    <t>Dunkin Visor 2021 6 Pack</t>
+  </si>
+  <si>
+    <t>Sipper Acrylic Bamboo Lid CMT 6/24 ounce 6/24 OZ</t>
+  </si>
+  <si>
+    <t>College Tumbler Penn State 6/24 ounce</t>
+  </si>
+  <si>
+    <t>Dog Toys Barkbox 2025 8 count 1/8 COUNT</t>
+  </si>
+  <si>
+    <t>K Cup Coffee Pumpkin 6/12</t>
+  </si>
+  <si>
+    <t>Maple Sugar Bacon Rub 10/3 ounce</t>
   </si>
 </sst>
 </file>
@@ -734,27 +801,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,251 +1130,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE55B1-FF2A-4E90-A32A-AA62D998A64B}">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="6">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
         <v>914841</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="6">
-        <v>914240</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="2">
+        <v>914215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6">
-        <v>914215</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="2">
+        <v>914211</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="6">
-        <v>150205</v>
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <v>914212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="6">
-        <v>150505</v>
+        <v>65</v>
+      </c>
+      <c r="B7" s="2">
+        <v>914748</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
-        <v>0.32</v>
+        <v>1.54</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="6">
-        <v>914241</v>
+        <v>65</v>
+      </c>
+      <c r="B8" s="2">
+        <v>150505</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="6">
-        <v>914212</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150205</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6">
-        <v>914238</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="2">
+        <v>914240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="6">
-        <v>214800</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="2">
+        <v>914241</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2">
-        <v>1.79</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="6">
-        <v>914244</v>
+        <v>65</v>
+      </c>
+      <c r="B12" s="2">
+        <v>914238</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="6">
-        <v>914211</v>
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>914244</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6">
-        <v>914748</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <v>214800</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
         <v>282675</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1322,41 +1382,45 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6">
-        <v>911946</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>233268</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6">
-        <v>245085</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>233271</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6">
-        <v>911923</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>245085</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1364,441 +1428,443 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6">
-        <v>233271</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>150340</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6">
-        <v>233268</v>
+        <v>158</v>
+      </c>
+      <c r="B20" s="2">
+        <v>914935</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>214</v>
+        <v>159</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>911586</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6">
-        <v>150340</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0.34</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="6">
-        <v>914935</v>
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>912373</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>214</v>
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6">
-        <v>913040</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>912371</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>1.8</v>
+        <v>0.81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6">
-        <v>912727</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>911682</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6">
-        <v>914369</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>911585</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>2.86</v>
+        <v>5.28</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6">
-        <v>914687</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>913040</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>5.58</v>
+        <v>1.67</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6">
-        <v>913645</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>912727</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.42</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6">
-        <v>910958</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>914369</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2">
-        <v>8.64</v>
+        <v>2.75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6">
-        <v>914370</v>
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>914687</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2">
-        <v>2.71</v>
+        <v>5.96</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6">
-        <v>912373</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>912765</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2.02</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6">
-        <v>912371</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>911489</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.86</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="6">
-        <v>913977</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>233218</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.89</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6">
-        <v>914761</v>
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>912820</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.8</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6">
-        <v>911586</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>232507</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.32</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6">
-        <v>911682</v>
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>912821</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.21</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6">
-        <v>911585</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>912820</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4.91</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6">
-        <v>912034</v>
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>910958</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2">
-        <v>8.5</v>
+        <v>8.27</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6">
-        <v>913554</v>
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>913645</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.44</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6">
-        <v>912765</v>
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>914370</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.07</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="6">
-        <v>912764</v>
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>913977</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6">
-        <v>911489</v>
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>912034</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9.17</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6">
-        <v>912826</v>
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>914693</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3.75</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="6">
-        <v>233208</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>914863</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.4</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6">
-        <v>233218</v>
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>912618</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.2</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="6">
-        <v>232507</v>
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>912615</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.06</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="6">
-        <v>912762</v>
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>912616</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.15</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6">
-        <v>912821</v>
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>913554</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1806,13 +1872,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="6">
-        <v>912820</v>
+        <v>5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>912764</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1820,13 +1886,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="6">
-        <v>912820</v>
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>233208</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1834,269 +1900,267 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="6">
-        <v>914919</v>
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>912762</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.05</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="6">
-        <v>914995</v>
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>911075</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>214</v>
+        <v>153</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="6">
-        <v>911075</v>
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>914995</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="6">
-        <v>912618</v>
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>914919</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D53" s="2">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="6">
-        <v>912615</v>
+        <v>5</v>
+      </c>
+      <c r="B54" s="2">
+        <v>914761</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D54" s="2">
-        <v>0.05</v>
+        <v>1.17</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="6">
-        <v>912616</v>
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>911323</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2">
-        <v>0.17</v>
+        <v>1.54</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="6">
-        <v>914693</v>
+        <v>11</v>
+      </c>
+      <c r="B56" s="2">
+        <v>914953</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2">
-        <v>4.2</v>
+        <v>0.17</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="6">
-        <v>911323</v>
+        <v>11</v>
+      </c>
+      <c r="B57" s="2">
+        <v>206350</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2">
-        <v>2.21</v>
+        <v>0.12</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="6">
-        <v>914863</v>
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>913678</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2">
-        <v>1.54</v>
+        <v>0.04</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="6">
-        <v>914953</v>
+        <v>11</v>
+      </c>
+      <c r="B59" s="2">
+        <v>206250</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D59" s="2">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="6">
+        <v>11</v>
+      </c>
+      <c r="B60" s="2">
         <v>201200</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D60" s="2">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="6">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
         <v>202400</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D61" s="2">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="6">
-        <v>913820</v>
+        <v>11</v>
+      </c>
+      <c r="B62" s="2">
+        <v>203300</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D62" s="2">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="6">
-        <v>200200</v>
+        <v>11</v>
+      </c>
+      <c r="B63" s="2">
+        <v>913820</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D63" s="2">
-        <v>2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="6">
-        <v>200110</v>
+        <v>11</v>
+      </c>
+      <c r="B64" s="2">
+        <v>200200</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D64" s="2">
-        <v>0.57999999999999996</v>
+        <v>1.67</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="6">
-        <v>206350</v>
+        <v>11</v>
+      </c>
+      <c r="B65" s="2">
+        <v>200110</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="D65" s="2">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="6">
-        <v>913678</v>
+        <v>11</v>
+      </c>
+      <c r="B66" s="2">
+        <v>914735</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2104,43 +2168,43 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="6">
-        <v>206250</v>
+        <v>11</v>
+      </c>
+      <c r="B67" s="2">
+        <v>914729</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.12</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="6">
-        <v>914954</v>
+        <v>11</v>
+      </c>
+      <c r="B68" s="2">
+        <v>914769</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.08</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="6">
-        <v>914729</v>
+        <v>11</v>
+      </c>
+      <c r="B69" s="2">
+        <v>914408</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2148,29 +2212,27 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="6">
-        <v>914769</v>
+        <v>11</v>
+      </c>
+      <c r="B70" s="2">
+        <v>914770</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0.06</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="6">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
         <v>914770</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2">
         <v>0.1</v>
@@ -2180,49 +2242,45 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="6">
-        <v>914408</v>
+        <v>11</v>
+      </c>
+      <c r="B72" s="2">
+        <v>914409</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="D72" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="6">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2">
         <v>914935</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="6">
-        <v>914409</v>
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
+        <v>914930</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
@@ -2230,11 +2288,11 @@
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="6">
-        <v>914930</v>
+      <c r="B75" s="2">
+        <v>910845</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2244,11 +2302,11 @@
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="6">
-        <v>912644</v>
+      <c r="B76" s="2">
+        <v>320124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2258,15 +2316,13 @@
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="6">
-        <v>912508</v>
+      <c r="B77" s="2">
+        <v>910844</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.01</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
@@ -2274,15 +2330,13 @@
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="6">
-        <v>914938</v>
+      <c r="B78" s="2">
+        <v>282475</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1.58</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
@@ -2290,14 +2344,14 @@
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="6">
-        <v>914938</v>
+      <c r="B79" s="2">
+        <v>912435</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2306,14 +2360,14 @@
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="6">
-        <v>912513</v>
+      <c r="B80" s="2">
+        <v>914938</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2">
-        <v>0.56000000000000005</v>
+        <v>1.5</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2322,14 +2376,14 @@
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="6">
-        <v>914343</v>
+      <c r="B81" s="2">
+        <v>913560</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2">
-        <v>0.38</v>
+        <v>1.58</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2338,14 +2392,14 @@
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="6">
-        <v>300131</v>
+      <c r="B82" s="2">
+        <v>913960</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2">
-        <v>0.27</v>
+        <v>2.08</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2354,14 +2408,14 @@
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="6">
-        <v>300130</v>
+      <c r="B83" s="2">
+        <v>914938</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -2370,14 +2424,14 @@
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="6">
-        <v>911689</v>
+      <c r="B84" s="2">
+        <v>912939</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2386,11 +2440,11 @@
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="6">
-        <v>914390</v>
+      <c r="B85" s="2">
+        <v>914832</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2400,13 +2454,15 @@
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="6">
-        <v>913959</v>
+      <c r="B86" s="2">
+        <v>914343</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.35</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
@@ -2414,15 +2470,13 @@
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="6">
-        <v>911490</v>
+      <c r="B87" s="2">
+        <v>912508</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="2">
-        <v>1.17</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
@@ -2430,14 +2484,14 @@
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="6">
-        <v>914986</v>
+      <c r="B88" s="2">
+        <v>914223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>214</v>
+        <v>22</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.37</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2446,14 +2500,14 @@
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="6">
-        <v>200000</v>
+      <c r="B89" s="2">
+        <v>914722</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D89" s="2">
-        <v>2.17</v>
+        <v>0.84</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -2462,14 +2516,14 @@
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="6">
-        <v>201000</v>
+      <c r="B90" s="2">
+        <v>912513</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -2478,14 +2532,14 @@
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="6">
-        <v>204177</v>
+      <c r="B91" s="2">
+        <v>912511</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2">
-        <v>3.83</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -2494,13 +2548,15 @@
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="6">
-        <v>913754</v>
+      <c r="B92" s="2">
+        <v>914224</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.31</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
@@ -2508,14 +2564,14 @@
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="6">
-        <v>913425</v>
+      <c r="B93" s="2">
+        <v>914225</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -2524,14 +2580,14 @@
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="6">
-        <v>911100</v>
+      <c r="B94" s="2">
+        <v>914754</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -2540,14 +2596,14 @@
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="6">
-        <v>911099</v>
+      <c r="B95" s="2">
+        <v>914986</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -2556,15 +2612,13 @@
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="6">
-        <v>911757</v>
+      <c r="B96" s="2">
+        <v>913959</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0.56000000000000005</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
@@ -2572,15 +2626,13 @@
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="6">
-        <v>911758</v>
+      <c r="B97" s="2">
+        <v>314205</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="2">
-        <v>4.49</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
@@ -2588,14 +2640,14 @@
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="6">
-        <v>911759</v>
+      <c r="B98" s="2">
+        <v>200000</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
-        <v>4.24</v>
+        <v>2.33</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -2604,14 +2656,14 @@
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="6">
-        <v>911101</v>
+      <c r="B99" s="2">
+        <v>204177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -2620,14 +2672,14 @@
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="6">
-        <v>913424</v>
+      <c r="B100" s="2">
+        <v>201000</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -2636,14 +2688,14 @@
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="6">
-        <v>911372</v>
+      <c r="B101" s="2">
+        <v>206000</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="D101" s="2">
-        <v>0.15</v>
+        <v>4.12</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -2652,11 +2704,11 @@
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="6">
-        <v>911059</v>
+      <c r="B102" s="2">
+        <v>206200</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D102" s="2">
         <v>0.25</v>
@@ -2668,14 +2720,14 @@
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="6">
-        <v>912381</v>
+      <c r="B103" s="2">
+        <v>914656</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D103" s="2">
-        <v>0.25</v>
+        <v>7.1</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -2684,14 +2736,14 @@
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="6">
-        <v>260020</v>
+      <c r="B104" s="2">
+        <v>914825</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D104" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -2700,14 +2752,14 @@
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="6">
-        <v>912018</v>
+      <c r="B105" s="2">
+        <v>913537</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2">
-        <v>2.83</v>
+        <v>0.27</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -2716,14 +2768,14 @@
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="6">
-        <v>912320</v>
+      <c r="B106" s="2">
+        <v>911059</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>214</v>
+        <v>45</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.25</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -2732,14 +2784,14 @@
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="6">
-        <v>914825</v>
+      <c r="B107" s="2">
+        <v>912381</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D107" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -2748,13 +2800,15 @@
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="6">
-        <v>912833</v>
+      <c r="B108" s="2">
+        <v>260020</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
@@ -2762,14 +2816,14 @@
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="6">
-        <v>914223</v>
+      <c r="B109" s="2">
+        <v>300131</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D109" s="2">
-        <v>1.19</v>
+        <v>0.26</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -2778,14 +2832,14 @@
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="6">
-        <v>914722</v>
+      <c r="B110" s="2">
+        <v>911757</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D110" s="2">
-        <v>0.81</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -2794,14 +2848,14 @@
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="6">
-        <v>913537</v>
+      <c r="B111" s="2">
+        <v>911758</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D111" s="2">
-        <v>0.27</v>
+        <v>4.32</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -2810,14 +2864,14 @@
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="6">
-        <v>913584</v>
+      <c r="B112" s="2">
+        <v>911759</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>214</v>
+        <v>58</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4.17</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -2826,14 +2880,14 @@
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="6">
-        <v>206000</v>
+      <c r="B113" s="2">
+        <v>913584</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D113" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -2842,14 +2896,14 @@
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="6">
-        <v>206200</v>
+      <c r="B114" s="2">
+        <v>914182</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D114" s="2">
-        <v>0.25</v>
+        <v>1.21</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -2858,14 +2912,14 @@
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="6">
-        <v>250000</v>
+      <c r="B115" s="2">
+        <v>914181</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D115" s="2">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -2874,14 +2928,14 @@
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="6">
-        <v>913590</v>
+      <c r="B116" s="2">
+        <v>914180</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D116" s="2">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -2890,14 +2944,14 @@
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="6">
-        <v>913589</v>
+      <c r="B117" s="2">
+        <v>914183</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D117" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -2906,14 +2960,14 @@
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="6">
-        <v>913342</v>
+      <c r="B118" s="2">
+        <v>912320</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D118" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -2922,15 +2976,13 @@
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="6">
-        <v>913588</v>
+      <c r="B119" s="2">
+        <v>913754</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" s="2">
-        <v>1</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
@@ -2938,11 +2990,11 @@
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="6">
-        <v>913587</v>
+      <c r="B120" s="2">
+        <v>913590</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
@@ -2954,14 +3006,14 @@
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="6">
-        <v>913300</v>
+      <c r="B121" s="2">
+        <v>913589</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -2970,14 +3022,14 @@
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="6">
-        <v>915030</v>
+      <c r="B122" s="2">
+        <v>913300</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D122" s="2">
-        <v>0.12</v>
+        <v>2</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -2986,14 +3038,14 @@
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="6">
-        <v>312799</v>
+      <c r="B123" s="2">
+        <v>913342</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D123" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -3002,11 +3054,11 @@
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="6">
-        <v>914380</v>
+      <c r="B124" s="2">
+        <v>913588</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D124" s="2">
         <v>1</v>
@@ -3018,14 +3070,14 @@
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="6">
-        <v>914180</v>
+      <c r="B125" s="2">
+        <v>913587</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D125" s="2">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -3034,15 +3086,13 @@
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="6">
-        <v>914181</v>
+      <c r="B126" s="2">
+        <v>915008</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D126" s="2">
-        <v>1.46</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
@@ -3050,14 +3100,14 @@
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="6">
-        <v>914182</v>
+      <c r="B127" s="2">
+        <v>915030</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D127" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -3066,14 +3116,14 @@
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="6">
-        <v>914183</v>
+      <c r="B128" s="2">
+        <v>914380</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D128" s="2">
-        <v>0.73</v>
+        <v>1.38</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -3082,14 +3132,14 @@
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="6">
-        <v>300120</v>
+      <c r="B129" s="2">
+        <v>300130</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>214</v>
+        <v>92</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.26</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -3098,13 +3148,15 @@
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="6">
-        <v>912127</v>
+      <c r="B130" s="2">
+        <v>911099</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2.5</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
@@ -3112,13 +3164,15 @@
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="6">
-        <v>314205</v>
+      <c r="B131" s="2">
+        <v>911101</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D131" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1.76</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
@@ -3126,13 +3180,15 @@
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="6">
-        <v>314205</v>
+      <c r="B132" s="2">
+        <v>913425</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D132" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.31</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
@@ -3140,14 +3196,14 @@
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="6">
-        <v>914656</v>
+      <c r="B133" s="2">
+        <v>913424</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D133" s="2">
-        <v>7.55</v>
+        <v>0.19</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -3156,13 +3212,15 @@
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="6">
-        <v>914787</v>
+      <c r="B134" s="2">
+        <v>911100</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.3</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
@@ -3170,14 +3228,14 @@
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="6">
-        <v>914848</v>
+      <c r="B135" s="2">
+        <v>911372</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D135" s="2">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -3186,14 +3244,14 @@
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="6">
-        <v>913560</v>
+      <c r="B136" s="2">
+        <v>300120</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D136" s="2">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -3202,14 +3260,14 @@
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="2">
         <v>914665</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D137" s="2">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -3218,15 +3276,13 @@
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="6">
-        <v>267082</v>
+      <c r="B138" s="2">
+        <v>912127</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D138" s="2">
-        <v>2</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
@@ -3234,15 +3290,13 @@
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="6">
-        <v>913960</v>
+      <c r="B139" s="2">
+        <v>911973</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="2">
-        <v>2.25</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
@@ -3250,15 +3304,13 @@
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="6">
-        <v>912435</v>
+      <c r="B140" s="2">
+        <v>914787</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0.38</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
@@ -3266,14 +3318,14 @@
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="6">
-        <v>912511</v>
+      <c r="B141" s="2">
+        <v>914848</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="D141" s="2">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -3282,15 +3334,13 @@
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="6">
-        <v>914224</v>
+      <c r="B142" s="2">
+        <v>912833</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0.32</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
@@ -3298,14 +3348,14 @@
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="6">
-        <v>914225</v>
+      <c r="B143" s="2">
+        <v>913991</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D143" s="2">
-        <v>0.09</v>
+        <v>0.78</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -3314,13 +3364,15 @@
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="6">
-        <v>914475</v>
+      <c r="B144" s="2">
+        <v>312799</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
@@ -3328,13 +3380,15 @@
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="6">
-        <v>911973</v>
+      <c r="B145" s="2">
+        <v>914851</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D145" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
@@ -3342,15 +3396,13 @@
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="6">
-        <v>913991</v>
+      <c r="B146" s="2">
+        <v>914010</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0.72</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
@@ -3358,11 +3410,11 @@
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="6">
-        <v>282475</v>
+      <c r="B147" s="2">
+        <v>316805</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3372,11 +3424,11 @@
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="6">
-        <v>910845</v>
+      <c r="B148" s="2">
+        <v>316515</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3386,13 +3438,15 @@
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="6">
-        <v>320124</v>
+      <c r="B149" s="2">
+        <v>267082</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D149" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
@@ -3400,14 +3454,14 @@
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="6">
-        <v>914754</v>
+      <c r="B150" s="2">
+        <v>252000</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D150" s="2">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -3416,13 +3470,15 @@
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="6">
-        <v>914010</v>
+      <c r="B151" s="2">
+        <v>913529</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
@@ -3430,13 +3486,15 @@
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="6">
-        <v>316805</v>
+      <c r="B152" s="2">
+        <v>250500</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
@@ -3444,13 +3502,15 @@
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="6">
-        <v>316515</v>
+      <c r="B153" s="2">
+        <v>911689</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D153" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
@@ -3458,14 +3518,14 @@
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="6">
-        <v>912939</v>
+      <c r="B154" s="2">
+        <v>913529</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D154" s="2">
-        <v>4.83</v>
+        <v>0</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -3474,14 +3534,14 @@
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="6">
-        <v>250500</v>
+      <c r="B155" s="2">
+        <v>250000</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D155" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -3490,15 +3550,13 @@
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="6">
-        <v>252000</v>
+      <c r="B156" s="2">
+        <v>914390</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
@@ -3506,14 +3564,14 @@
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="6">
-        <v>913529</v>
+      <c r="B157" s="2">
+        <v>910912</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D157" s="2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -3522,14 +3580,14 @@
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="6">
-        <v>913529</v>
+      <c r="B158" s="2">
+        <v>266016</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D158" s="2">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -3538,14 +3596,14 @@
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="6">
-        <v>910912</v>
+      <c r="B159" s="2">
+        <v>914985</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D159" s="2">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -3554,14 +3612,14 @@
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="6">
-        <v>266016</v>
+      <c r="B160" s="2">
+        <v>910971</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D160" s="2">
-        <v>6.33</v>
+        <v>4.75</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -3570,14 +3628,14 @@
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="6">
-        <v>914985</v>
+      <c r="B161" s="2">
+        <v>914807</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="D161" s="2">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -3586,14 +3644,14 @@
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="6">
-        <v>910971</v>
+      <c r="B162" s="2">
+        <v>266105</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D162" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -3602,14 +3660,14 @@
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="6">
-        <v>914807</v>
+      <c r="B163" s="2">
+        <v>253060</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D163" s="2">
-        <v>0.5</v>
+        <v>4.75</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -3618,14 +3676,14 @@
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="6">
-        <v>266105</v>
+      <c r="B164" s="2">
+        <v>914402</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D164" s="2">
-        <v>2.17</v>
+        <v>0.75</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -3634,14 +3692,14 @@
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="6">
-        <v>253060</v>
+      <c r="B165" s="2">
+        <v>911706</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D165" s="2">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -3650,14 +3708,14 @@
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="6">
-        <v>914402</v>
+      <c r="B166" s="2">
+        <v>914404</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D166" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -3666,14 +3724,14 @@
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="6">
-        <v>911706</v>
+      <c r="B167" s="2">
+        <v>911076</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D167" s="2">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -3682,14 +3740,14 @@
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="6">
-        <v>914404</v>
+      <c r="B168" s="2">
+        <v>914845</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D168" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -3698,14 +3756,14 @@
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="6">
-        <v>911076</v>
+      <c r="B169" s="2">
+        <v>910263</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D169" s="2">
-        <v>2.5</v>
+        <v>0.05</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -3714,14 +3772,14 @@
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="6">
-        <v>914845</v>
+      <c r="B170" s="2">
+        <v>911490</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D170" s="2">
-        <v>0.25</v>
+        <v>1.33</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -3730,14 +3788,14 @@
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="6">
-        <v>910263</v>
+      <c r="B171" s="2">
+        <v>910270</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D171" s="2">
-        <v>0.04</v>
+        <v>0.83</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -3746,14 +3804,14 @@
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="6">
-        <v>910265</v>
+      <c r="B172" s="2">
+        <v>912018</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D172" s="2">
-        <v>0.83</v>
+        <v>3</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -3762,14 +3820,14 @@
       <c r="A173" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="6">
-        <v>910270</v>
+      <c r="B173" s="2">
+        <v>910265</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D173" s="2">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -3778,14 +3836,14 @@
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="2">
         <v>912745</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D174" s="2">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -3794,14 +3852,14 @@
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="2">
         <v>912745</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D175" s="2">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -3810,11 +3868,11 @@
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="6">
-        <v>914832</v>
+      <c r="B176" s="2">
+        <v>914671</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -3822,277 +3880,281 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B177" s="6">
-        <v>914851</v>
+        <v>19</v>
+      </c>
+      <c r="B177" s="2">
+        <v>914669</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="D177" s="2">
-        <v>0.76</v>
+        <v>4.17</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B178" s="6">
-        <v>914671</v>
+        <v>19</v>
+      </c>
+      <c r="B178" s="2">
+        <v>911028</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D178" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2.92</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B179" s="6">
-        <v>266200</v>
+        <v>19</v>
+      </c>
+      <c r="B179" s="2">
+        <v>912639</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B180" s="6">
-        <v>912907</v>
+        <v>19</v>
+      </c>
+      <c r="B180" s="2">
+        <v>913019</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
-        <v>4.8899999999999997</v>
+        <v>0.35</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" s="6">
-        <v>912139</v>
+        <v>19</v>
+      </c>
+      <c r="B181" s="2">
+        <v>912557</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D181" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2.52</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B182" s="6">
-        <v>911028</v>
+        <v>19</v>
+      </c>
+      <c r="B182" s="2">
+        <v>912139</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D182" s="2">
-        <v>3.29</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B183" s="6">
-        <v>912639</v>
+        <v>19</v>
+      </c>
+      <c r="B183" s="2">
+        <v>914677</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D183" s="2">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B184" s="6">
-        <v>914677</v>
+        <v>19</v>
+      </c>
+      <c r="B184" s="2">
+        <v>150145</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D184" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B185" s="6">
-        <v>150811</v>
+        <v>19</v>
+      </c>
+      <c r="B185" s="2">
+        <v>911408</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D185" s="2">
-        <v>3.08</v>
+        <v>0.33</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B186" s="6">
-        <v>914371</v>
+        <v>19</v>
+      </c>
+      <c r="B186" s="2">
+        <v>911403</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D186" s="2">
-        <v>4.17</v>
+        <v>0.31</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B187" s="6">
-        <v>914864</v>
+        <v>19</v>
+      </c>
+      <c r="B187" s="2">
+        <v>911405</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D187" s="2">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B188" s="6">
-        <v>914866</v>
+        <v>19</v>
+      </c>
+      <c r="B188" s="2">
+        <v>911406</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D188" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.54</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B189" s="6">
-        <v>914865</v>
+        <v>19</v>
+      </c>
+      <c r="B189" s="2">
+        <v>914864</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B190" s="6">
-        <v>911408</v>
+        <v>19</v>
+      </c>
+      <c r="B190" s="2">
+        <v>914866</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0.17</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B191" s="6">
-        <v>911403</v>
+        <v>19</v>
+      </c>
+      <c r="B191" s="2">
+        <v>266200</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D191" s="2">
-        <v>0.31</v>
+        <v>2.67</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B192" s="6">
-        <v>911405</v>
+        <v>19</v>
+      </c>
+      <c r="B192" s="2">
+        <v>914371</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D192" s="2">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B193" s="6">
-        <v>911406</v>
+        <v>19</v>
+      </c>
+      <c r="B193" s="2">
+        <v>150110</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D193" s="2">
-        <v>0.48</v>
+        <v>15.67</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B194" s="6">
+        <v>19</v>
+      </c>
+      <c r="B194" s="2">
         <v>912847</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D194" s="2">
         <v>8.83</v>
@@ -4102,331 +4164,423 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B195" s="6">
-        <v>150110</v>
+        <v>19</v>
+      </c>
+      <c r="B195" s="2">
+        <v>150420</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D195" s="2">
-        <v>16.11</v>
+        <v>1.25</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B196" s="6">
-        <v>150145</v>
+        <v>19</v>
+      </c>
+      <c r="B196" s="2">
+        <v>150811</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D196" s="2">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B197" s="6">
-        <v>913161</v>
+        <v>19</v>
+      </c>
+      <c r="B197" s="2">
+        <v>150240</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="D197" s="2">
-        <v>4.33</v>
+        <v>18.5</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B198" s="6">
-        <v>913019</v>
+        <v>19</v>
+      </c>
+      <c r="B198" s="2">
+        <v>912907</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D198" s="2">
-        <v>0.4</v>
+        <v>4.88</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B199" s="6">
-        <v>150420</v>
+        <v>19</v>
+      </c>
+      <c r="B199" s="2">
+        <v>913161</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D199" s="2">
-        <v>1.25</v>
+        <v>3.62</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B200" s="6">
-        <v>912557</v>
+        <v>218</v>
+      </c>
+      <c r="B200" s="2">
+        <v>912283</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D200" s="2">
-        <v>2.76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B201" s="6">
-        <v>914669</v>
+        <v>218</v>
+      </c>
+      <c r="B201" s="2">
+        <v>911984</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D201" s="2">
-        <v>4</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B202" s="6">
-        <v>150240</v>
+        <v>218</v>
+      </c>
+      <c r="B202" s="2">
+        <v>911206</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D202" s="2">
-        <v>17.75</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
+      <c r="A203" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" s="2">
+        <v>352252</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
+      <c r="A204" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" s="2">
+        <v>915064</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
+      <c r="A205" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B205" s="2">
+        <v>913941</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
+      <c r="A206" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="2">
+        <v>913585</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
+      <c r="A207" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" s="2">
+        <v>713102</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
+      <c r="A208" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B208" s="2">
+        <v>915061</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
+      <c r="A209" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B209" s="2">
+        <v>911315</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
+      <c r="A210" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" s="2">
+        <v>910885</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
+      <c r="A211" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B211" s="2">
+        <v>914673</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
+      <c r="A212" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="2">
+        <v>913634</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
+      <c r="A213" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B213" s="2">
+        <v>912511</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
+      <c r="A214" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B214" s="2">
+        <v>914214</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
+      <c r="A215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B215" s="2">
+        <v>914241</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
+      <c r="A216" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B216" s="2">
+        <v>914795</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
+      <c r="A217" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B217" s="2">
+        <v>914790</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
+      <c r="A218" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218" s="2">
+        <v>914791</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
+      <c r="A219" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B219" s="2">
+        <v>914795</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2">
+        <v>914811</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2">
+        <v>913162</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2">
+        <v>206800</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2">
+        <v>911075</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
